--- a/biology/Histoire de la zoologie et de la botanique/Choix_des_plus_belles_fleurs/Choix_des_plus_belles_fleurs.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Choix_des_plus_belles_fleurs/Choix_des_plus_belles_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Choix des plus belles fleurs est un livre de dessins à l'aquarelle par l'artiste belge Pierre-Joseph Redouté. Il contient 144 dessins reproduits par plaques de cuivre[1].
+Choix des plus belles fleurs est un livre de dessins à l'aquarelle par l'artiste belge Pierre-Joseph Redouté. Il contient 144 dessins reproduits par plaques de cuivre.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le titre complet est en français Choix des plus belles fleurs et de quelques branches de plus beaux fruits. Dédié à LL. AA. RR. les princesses Louise et Marie d'Orléans (1827). Une édition folio a été publiée avec des pages en couleur à Paris en 1827[2].
-De mai 1827 à juin 1833, 144 pages spéciales ont été imprimées sous la forme de 36 compositions de quatre photos de fleurs, d'arbres à fleurs ou de fruits[3].
-Redouté a travaillé pendant un demi-siècle comme professeur d'art pour les reines et les princesses. Il a dédié le livre à ses élèves, les princesses Louise et Marie d'Orléans[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le titre complet est en français Choix des plus belles fleurs et de quelques branches de plus beaux fruits. Dédié à LL. AA. RR. les princesses Louise et Marie d'Orléans (1827). Une édition folio a été publiée avec des pages en couleur à Paris en 1827.
+De mai 1827 à juin 1833, 144 pages spéciales ont été imprimées sous la forme de 36 compositions de quatre photos de fleurs, d'arbres à fleurs ou de fruits.
+Redouté a travaillé pendant un demi-siècle comme professeur d'art pour les reines et les princesses. Il a dédié le livre à ses élèves, les princesses Louise et Marie d'Orléans.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Des fleurs et des Fruits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
